--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N2">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O2">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P2">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q2">
-        <v>14.295814848018</v>
+        <v>99.47675067666526</v>
       </c>
       <c r="R2">
-        <v>57.183259392072</v>
+        <v>397.907002706661</v>
       </c>
       <c r="S2">
-        <v>0.0001358832986451131</v>
+        <v>0.0004172231033296396</v>
       </c>
       <c r="T2">
-        <v>7.050176613632372E-05</v>
+        <v>0.0002187325737829802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P3">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q3">
-        <v>941.0940715067102</v>
+        <v>655.8774564230326</v>
       </c>
       <c r="R3">
-        <v>5646.564429040261</v>
+        <v>3935.264738538196</v>
       </c>
       <c r="S3">
-        <v>0.008945203063358163</v>
+        <v>0.002750866166328842</v>
       </c>
       <c r="T3">
-        <v>0.006961701188111587</v>
+        <v>0.002163245630066054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N4">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O4">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P4">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q4">
-        <v>726.301290699182</v>
+        <v>304.280135602887</v>
       </c>
       <c r="R4">
-        <v>4357.807744195093</v>
+        <v>1825.680813617322</v>
       </c>
       <c r="S4">
-        <v>0.00690357396480208</v>
+        <v>0.001276204757335123</v>
       </c>
       <c r="T4">
-        <v>0.005372781225039758</v>
+        <v>0.001003590940979529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N5">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O5">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P5">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q5">
-        <v>1279.469827647297</v>
+        <v>978.9764105241428</v>
       </c>
       <c r="R5">
-        <v>5117.879310589188</v>
+        <v>3915.905642096571</v>
       </c>
       <c r="S5">
-        <v>0.01216150198823491</v>
+        <v>0.004106000380058721</v>
       </c>
       <c r="T5">
-        <v>0.006309880445868977</v>
+        <v>0.00215260378420261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N6">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O6">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P6">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q6">
-        <v>40.255310481716</v>
+        <v>99.16766492234849</v>
       </c>
       <c r="R6">
-        <v>241.531862890296</v>
+        <v>595.005989534091</v>
       </c>
       <c r="S6">
-        <v>0.0003826311710379449</v>
+        <v>0.0004159267429566498</v>
       </c>
       <c r="T6">
-        <v>0.0002977868539323435</v>
+        <v>0.000327079419617618</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N7">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O7">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P7">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q7">
-        <v>739.7087957704721</v>
+        <v>482.3727763959944</v>
       </c>
       <c r="R7">
-        <v>4438.252774622832</v>
+        <v>2894.236658375967</v>
       </c>
       <c r="S7">
-        <v>0.007031013780934041</v>
+        <v>0.002023156821676132</v>
       </c>
       <c r="T7">
-        <v>0.005471962642509505</v>
+        <v>0.001590984398659414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N8">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O8">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P8">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q8">
-        <v>37.597914448973</v>
+        <v>375.3935145823696</v>
       </c>
       <c r="R8">
-        <v>225.587486693838</v>
+        <v>2252.361087494217</v>
       </c>
       <c r="S8">
-        <v>0.0003573723283224757</v>
+        <v>0.001574466858421586</v>
       </c>
       <c r="T8">
-        <v>0.0002781288859580993</v>
+        <v>0.001238140405685288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P9">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q9">
         <v>2475.072233734936</v>
@@ -1013,10 +1013,10 @@
         <v>22275.65010361442</v>
       </c>
       <c r="S9">
-        <v>0.02352583487407573</v>
+        <v>0.01038089112581105</v>
       </c>
       <c r="T9">
-        <v>0.02746385377181442</v>
+        <v>0.01224509809254263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N10">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O10">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P10">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q10">
-        <v>1910.168401185783</v>
+        <v>1148.256137686271</v>
       </c>
       <c r="R10">
-        <v>17191.51561067205</v>
+        <v>10334.30523917643</v>
       </c>
       <c r="S10">
-        <v>0.01815636157016764</v>
+        <v>0.004815989524426151</v>
       </c>
       <c r="T10">
-        <v>0.02119557762180652</v>
+        <v>0.005680847956552331</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N11">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O11">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P11">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q11">
-        <v>3364.998611925555</v>
+        <v>3694.344587454415</v>
       </c>
       <c r="R11">
-        <v>20189.99167155333</v>
+        <v>22166.06752472649</v>
       </c>
       <c r="S11">
-        <v>0.03198468336263217</v>
+        <v>0.01549473523272563</v>
       </c>
       <c r="T11">
-        <v>0.02489242631943299</v>
+        <v>0.01218485969673937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N12">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O12">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P12">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q12">
-        <v>105.8712452349816</v>
+        <v>374.227123573103</v>
       </c>
       <c r="R12">
-        <v>952.841207114834</v>
+        <v>3368.044112157927</v>
       </c>
       <c r="S12">
-        <v>0.001006317876045347</v>
+        <v>0.001569574808035223</v>
       </c>
       <c r="T12">
-        <v>0.001174766682823539</v>
+        <v>0.001851440040651949</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N13">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O13">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P13">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q13">
-        <v>1945.43006580607</v>
+        <v>1820.320935679944</v>
       </c>
       <c r="R13">
-        <v>17508.87059225463</v>
+        <v>16382.8884211195</v>
       </c>
       <c r="S13">
-        <v>0.01849152758590452</v>
+        <v>0.00763474826704864</v>
       </c>
       <c r="T13">
-        <v>0.0215868474957451</v>
+        <v>0.009005801169557714</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N14">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O14">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P14">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q14">
-        <v>236.977085028861</v>
+        <v>4202.189440729257</v>
       </c>
       <c r="R14">
-        <v>1421.862510173166</v>
+        <v>25213.13664437554</v>
       </c>
       <c r="S14">
-        <v>0.002252493359725453</v>
+        <v>0.01762472645431282</v>
       </c>
       <c r="T14">
-        <v>0.001753027358635187</v>
+        <v>0.01385985728788963</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P15">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q15">
-        <v>15600.2111229443</v>
+        <v>27706.18564685133</v>
       </c>
       <c r="R15">
-        <v>140401.9001064987</v>
+        <v>249355.6708216619</v>
       </c>
       <c r="S15">
-        <v>0.1482817292670624</v>
+        <v>0.116204647602327</v>
       </c>
       <c r="T15">
-        <v>0.1731027932237142</v>
+        <v>0.137072751409737</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N16">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O16">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P16">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q16">
-        <v>12039.66087644554</v>
+        <v>12853.68454595146</v>
       </c>
       <c r="R16">
-        <v>108356.9478880099</v>
+        <v>115683.1609135631</v>
       </c>
       <c r="S16">
-        <v>0.1144383060253995</v>
+        <v>0.05391062855393493</v>
       </c>
       <c r="T16">
-        <v>0.1335942770744793</v>
+        <v>0.06359193318502188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N17">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O17">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P17">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q17">
-        <v>21209.35625997371</v>
+        <v>41354.83223008597</v>
       </c>
       <c r="R17">
-        <v>127256.1375598422</v>
+        <v>248128.9933805158</v>
       </c>
       <c r="S17">
-        <v>0.2015972731448863</v>
+        <v>0.173449487677732</v>
       </c>
       <c r="T17">
-        <v>0.1568952617433295</v>
+        <v>0.136398437280862</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N18">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O18">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P18">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q18">
-        <v>667.299222626082</v>
+        <v>4189.132752767147</v>
       </c>
       <c r="R18">
-        <v>6005.693003634738</v>
+        <v>37702.19477490432</v>
       </c>
       <c r="S18">
-        <v>0.006342752792879314</v>
+        <v>0.01756996439349256</v>
       </c>
       <c r="T18">
-        <v>0.007404474108859813</v>
+        <v>0.02072518966564043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N19">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O19">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P19">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q19">
-        <v>12261.91273848225</v>
+        <v>20376.83954972597</v>
       </c>
       <c r="R19">
-        <v>110357.2146463402</v>
+        <v>183391.5559475338</v>
       </c>
       <c r="S19">
-        <v>0.1165508345146554</v>
+        <v>0.08546407251097606</v>
       </c>
       <c r="T19">
-        <v>0.1360604243473929</v>
+        <v>0.1008117644816658</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N20">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O20">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P20">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q20">
-        <v>24.0307146457875</v>
+        <v>373.9387820707666</v>
       </c>
       <c r="R20">
-        <v>96.12285858314999</v>
+        <v>1495.755128283066</v>
       </c>
       <c r="S20">
-        <v>0.0002284145961306818</v>
+        <v>0.001568365452727523</v>
       </c>
       <c r="T20">
-        <v>0.0001185107559140588</v>
+        <v>0.0008222282260250603</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P21">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q21">
-        <v>1581.942920193563</v>
+        <v>2465.480783943945</v>
       </c>
       <c r="R21">
-        <v>9491.657521161376</v>
+        <v>14792.88470366367</v>
       </c>
       <c r="S21">
-        <v>0.01503654213134879</v>
+        <v>0.01034066288735326</v>
       </c>
       <c r="T21">
-        <v>0.01170235180570651</v>
+        <v>0.00813176376112334</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N22">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O22">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P22">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q22">
-        <v>1220.884521044213</v>
+        <v>1143.806392365022</v>
       </c>
       <c r="R22">
-        <v>7325.307126265276</v>
+        <v>6862.838354190133</v>
       </c>
       <c r="S22">
-        <v>0.01160464218010259</v>
+        <v>0.004797326504782573</v>
       </c>
       <c r="T22">
-        <v>0.009031438490620582</v>
+        <v>0.003772555613390893</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N23">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O23">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P23">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q23">
-        <v>2150.739545311744</v>
+        <v>3680.028188870882</v>
       </c>
       <c r="R23">
-        <v>8602.958181246975</v>
+        <v>14720.11275548353</v>
       </c>
       <c r="S23">
-        <v>0.0204430168584597</v>
+        <v>0.01543468972254466</v>
       </c>
       <c r="T23">
-        <v>0.01060666622055015</v>
+        <v>0.008091760455284615</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N24">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O24">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P24">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q24">
-        <v>67.667627865075</v>
+        <v>372.776911083441</v>
       </c>
       <c r="R24">
-        <v>406.00576719045</v>
+        <v>2236.661466500646</v>
       </c>
       <c r="S24">
-        <v>0.0006431882745789173</v>
+        <v>0.001563492360113388</v>
       </c>
       <c r="T24">
-        <v>0.0005005682423976746</v>
+        <v>0.001229510201934205</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N25">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O25">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P25">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q25">
-        <v>1243.42202113815</v>
+        <v>1813.266791311917</v>
       </c>
       <c r="R25">
-        <v>7460.5321268289</v>
+        <v>10879.6007478715</v>
       </c>
       <c r="S25">
-        <v>0.01181886360704024</v>
+        <v>0.007605161936729809</v>
       </c>
       <c r="T25">
-        <v>0.009198158636811527</v>
+        <v>0.005980601138270272</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N26">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O26">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P26">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q26">
-        <v>7.136177008309</v>
+        <v>1577.779108386306</v>
       </c>
       <c r="R26">
-        <v>42.81706204985399</v>
+        <v>9466.674650317838</v>
       </c>
       <c r="S26">
-        <v>6.783015042607949E-05</v>
+        <v>0.006617484904681592</v>
       </c>
       <c r="T26">
-        <v>5.278954937818363E-05</v>
+        <v>0.005203904674571969</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P27">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q27">
-        <v>469.7748220118551</v>
+        <v>10402.72969680498</v>
       </c>
       <c r="R27">
-        <v>4227.973398106696</v>
+        <v>93624.56727124484</v>
       </c>
       <c r="S27">
-        <v>0.004465261554799859</v>
+        <v>0.04363089000873942</v>
       </c>
       <c r="T27">
-        <v>0.005212707266302531</v>
+        <v>0.05146615271723222</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N28">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O28">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P28">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q28">
-        <v>362.5546795964021</v>
+        <v>4826.121056282187</v>
       </c>
       <c r="R28">
-        <v>3262.992116367619</v>
+        <v>43435.08950653968</v>
       </c>
       <c r="S28">
-        <v>0.003446122262111657</v>
+        <v>0.02024160610846033</v>
       </c>
       <c r="T28">
-        <v>0.004022972973882493</v>
+        <v>0.02387660648250384</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N29">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O29">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P29">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q29">
-        <v>638.6850462145985</v>
+        <v>15527.33194059117</v>
       </c>
       <c r="R29">
-        <v>3832.110277287592</v>
+        <v>93163.99164354701</v>
       </c>
       <c r="S29">
-        <v>0.006070771886569196</v>
+        <v>0.06512437905958407</v>
       </c>
       <c r="T29">
-        <v>0.004724643985847882</v>
+        <v>0.05121297071293781</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N30">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O30">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P30">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q30">
-        <v>20.09462378856911</v>
+        <v>1572.876766456724</v>
       </c>
       <c r="R30">
-        <v>180.851614097122</v>
+        <v>14155.89089811052</v>
       </c>
       <c r="S30">
-        <v>0.000191001617917701</v>
+        <v>0.006596923614736652</v>
       </c>
       <c r="T30">
-        <v>0.0002229736174188717</v>
+        <v>0.007781603312514265</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N31">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O31">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P31">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q31">
-        <v>369.2474306179916</v>
+        <v>7650.809700506521</v>
       </c>
       <c r="R31">
-        <v>3323.226875561924</v>
+        <v>68857.28730455869</v>
       </c>
       <c r="S31">
-        <v>0.003509737599571775</v>
+        <v>0.03208885035464499</v>
       </c>
       <c r="T31">
-        <v>0.004097236962174552</v>
+        <v>0.03785138631235282</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N32">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O32">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P32">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q32">
-        <v>81.98401311074498</v>
+        <v>2423.304417020182</v>
       </c>
       <c r="R32">
-        <v>491.9040786644699</v>
+        <v>14539.8265021211</v>
       </c>
       <c r="S32">
-        <v>0.0007792670971250538</v>
+        <v>0.01016376773772882</v>
       </c>
       <c r="T32">
-        <v>0.0006064730601962567</v>
+        <v>0.007992655699782922</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O33">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P33">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q33">
-        <v>5397.010909633274</v>
+        <v>15977.50958251523</v>
       </c>
       <c r="R33">
-        <v>48573.09818669948</v>
+        <v>143797.586242637</v>
       </c>
       <c r="S33">
-        <v>0.05129918462299523</v>
+        <v>0.06701250378757875</v>
       </c>
       <c r="T33">
-        <v>0.05988621924111857</v>
+        <v>0.07904665142528169</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N34">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O34">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P34">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q34">
-        <v>4165.211649148366</v>
+        <v>7412.419400535799</v>
       </c>
       <c r="R34">
-        <v>37486.90484233529</v>
+        <v>66711.77460482219</v>
       </c>
       <c r="S34">
-        <v>0.03959079663932556</v>
+        <v>0.03108899923284112</v>
       </c>
       <c r="T34">
-        <v>0.04621794956191951</v>
+        <v>0.03667198129634359</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N35">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O35">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P35">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q35">
-        <v>7337.537051214791</v>
+        <v>23848.36500633926</v>
       </c>
       <c r="R35">
-        <v>44025.22230728875</v>
+        <v>143090.1900380355</v>
       </c>
       <c r="S35">
-        <v>0.06974409986766406</v>
+        <v>0.1000242648618889</v>
       </c>
       <c r="T35">
-        <v>0.05427910126505413</v>
+        <v>0.07865779023041888</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N36">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O36">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P36">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q36">
-        <v>230.8572080288011</v>
+        <v>2415.774930295105</v>
       </c>
       <c r="R36">
-        <v>2077.71487225921</v>
+        <v>21741.97437265594</v>
       </c>
       <c r="S36">
-        <v>0.002194323253095554</v>
+        <v>0.01013218773741169</v>
       </c>
       <c r="T36">
-        <v>0.002561633764484036</v>
+        <v>0.01195173239300978</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N37">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O37">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P37">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q37">
-        <v>4242.101360104535</v>
+        <v>11750.84702444855</v>
       </c>
       <c r="R37">
-        <v>38178.91224094082</v>
+        <v>105757.6232200369</v>
       </c>
       <c r="S37">
-        <v>0.04032164183196893</v>
+        <v>0.04928513274652366</v>
       </c>
       <c r="T37">
-        <v>0.04707113184463243</v>
+        <v>0.05813578792716759</v>
       </c>
     </row>
   </sheetData>
